--- a/billy_penn/data/dept_names_lookup.xlsx
+++ b/billy_penn/data/dept_names_lookup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholashand/Software/billy-penn/billy_penn/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93EF8A28-A237-8B43-B687-652806BA8EA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E9ADA37-8F35-6F4D-81D0-A40E590F6A63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$181</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$228</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="318">
   <si>
     <t>Art Museum</t>
   </si>
@@ -60,12 +60,6 @@
     <t>Board of Revision of Taxes</t>
   </si>
   <si>
-    <t>Camp William Penn</t>
-  </si>
-  <si>
-    <t>Capital Program Office</t>
-  </si>
-  <si>
     <t>City Commissioners</t>
   </si>
   <si>
@@ -94,9 +88,6 @@
   </si>
   <si>
     <t>Civil Service Commission</t>
-  </si>
-  <si>
-    <t>Clerk of Quarter Sessions</t>
   </si>
   <si>
     <t>Commerce</t>
@@ -852,6 +843,171 @@
   </si>
   <si>
     <t>Office of Children and Families</t>
+  </si>
+  <si>
+    <t>Representative/Commerce</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>Art Museum Subsidy</t>
+  </si>
+  <si>
+    <t>City Commissioners (Election Board)</t>
+  </si>
+  <si>
+    <t>Finance-Budget Stabilization Reserve</t>
+  </si>
+  <si>
+    <t>BSR</t>
+  </si>
+  <si>
+    <t>Finance-Disability-Reg #32 Payroll</t>
+  </si>
+  <si>
+    <t>Finance-Recession Reserve and Reopening</t>
+  </si>
+  <si>
+    <t>RR</t>
+  </si>
+  <si>
+    <t>Finance - Employee Benefits *</t>
+  </si>
+  <si>
+    <t>Fleet Management - Vehicle Purchases</t>
+  </si>
+  <si>
+    <t>L&amp;I-Board of L &amp; I Review</t>
+  </si>
+  <si>
+    <t>Mayor's Office-Scholarships</t>
+  </si>
+  <si>
+    <t>Office of Behavioral Hith &amp; Intellectual disAbility</t>
+  </si>
+  <si>
+    <t>Office of Innovation and Technology-Base</t>
+  </si>
+  <si>
+    <t>Auditing (City Controller's Office)</t>
+  </si>
+  <si>
+    <t>Mayor's Office-Comm. Empowerment &amp; Opp.</t>
+  </si>
+  <si>
+    <t>Office of Arts and Culture</t>
+  </si>
+  <si>
+    <t>Finance-Federal Grant Reserve</t>
+  </si>
+  <si>
+    <t>FGR</t>
+  </si>
+  <si>
+    <t>Finance - Employee Benefits</t>
+  </si>
+  <si>
+    <t>Finance Employee Benefits</t>
+  </si>
+  <si>
+    <t>L&amp;I-Zoning Board of Adjustment</t>
+  </si>
+  <si>
+    <t>Office of Housing and Comm. Development</t>
+  </si>
+  <si>
+    <t>Civil Service Commission (1)</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>Water,Sewer &amp; Stormwater Rate Board</t>
+  </si>
+  <si>
+    <t>Labor, Mayor's Office of</t>
+  </si>
+  <si>
+    <t>Mayor's Off. of Comm Empowerment/Oppor.</t>
+  </si>
+  <si>
+    <t>Office of Behavioral Hith/Intel. disAbility</t>
+  </si>
+  <si>
+    <t>Office of Community Schools and Pre-K</t>
+  </si>
+  <si>
+    <t>Office of Housing &amp; Comm. Development</t>
+  </si>
+  <si>
+    <t>Office of Chief Administrative Officer</t>
+  </si>
+  <si>
+    <t>Labor Relations, Mayor's Office of</t>
+  </si>
+  <si>
+    <t>Streets - Transportation</t>
+  </si>
+  <si>
+    <t>Board of L &amp; I Review</t>
+  </si>
+  <si>
+    <t>Managing Director (MDO)</t>
+  </si>
+  <si>
+    <t>Mayor - Office of Arts and Culture</t>
+  </si>
+  <si>
+    <t>Mayor - Office of the Inspector General</t>
+  </si>
+  <si>
+    <t>Mayor's Office of Comm. Svcs.</t>
+  </si>
+  <si>
+    <t>Off. of Behavioral Hith/Mental Retard. Svcs.</t>
+  </si>
+  <si>
+    <t>Off.of Supportive Housing</t>
+  </si>
+  <si>
+    <t>Office of Housing and Community Develop.</t>
+  </si>
+  <si>
+    <t>Zoning Board of Adjustment</t>
+  </si>
+  <si>
+    <t>Fairmount Park</t>
+  </si>
+  <si>
+    <t>Office of Property Assessment (1)</t>
+  </si>
+  <si>
+    <t>Office of Property Assessment (2)</t>
+  </si>
+  <si>
+    <t>Off. of Supportive Housing</t>
+  </si>
+  <si>
+    <t>Board of L &amp; 1 Review</t>
+  </si>
+  <si>
+    <t>Bd. of Pensions</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>Bd. of Revision of Taxes</t>
   </si>
 </sst>
 </file>
@@ -1271,10 +1427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D181"/>
+  <dimension ref="A1:D228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A155" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A180" sqref="A180"/>
+    <sheetView tabSelected="1" topLeftCell="A185" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B208" sqref="B208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1286,2341 +1442,2929 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>167</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D2" s="3" t="str">
-        <f>_xlfn.CONCAT(B2,C2)</f>
+        <f t="shared" ref="D2:D44" si="0">_xlfn.CONCAT(B2,C2)</f>
         <v>01</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D3" s="3" t="str">
-        <f>_xlfn.CONCAT(B3,C3)</f>
+        <f t="shared" si="0"/>
         <v>01</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>299</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D4" s="3" t="str">
-        <f>_xlfn.CONCAT(B4,C4)</f>
+        <f t="shared" si="0"/>
         <v>03</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>293</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D5" s="3" t="str">
-        <f>_xlfn.CONCAT(B5,C5)</f>
+        <f t="shared" si="0"/>
         <v>03</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D6" s="3" t="str">
-        <f>_xlfn.CONCAT(B6,C6)</f>
+        <f t="shared" si="0"/>
         <v>03</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="D7" s="3" t="str">
-        <f>_xlfn.CONCAT(B7,C7)</f>
-        <v>04</v>
+        <f t="shared" si="0"/>
+        <v>03</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="D8" s="3" t="str">
-        <f>_xlfn.CONCAT(B8,C8)</f>
-        <v>04</v>
+        <f t="shared" si="0"/>
+        <v>03</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>256</v>
+        <v>27</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D9" s="3" t="str">
-        <f>_xlfn.CONCAT(B9,C9)</f>
+        <f t="shared" si="0"/>
         <v>04</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D10" s="3" t="str">
-        <f>_xlfn.CONCAT(B10,C10)</f>
+        <f t="shared" si="0"/>
         <v>04</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>117</v>
+        <v>253</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D11" s="3" t="str">
-        <f>_xlfn.CONCAT(B11,C11)</f>
+        <f t="shared" si="0"/>
         <v>04</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>229</v>
+        <v>188</v>
       </c>
       <c r="D12" s="3" t="str">
-        <f>_xlfn.CONCAT(B12,C12)</f>
-        <v>04911</v>
+        <f t="shared" si="0"/>
+        <v>04</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>89</v>
+        <v>278</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>220</v>
+        <v>188</v>
       </c>
       <c r="D13" s="3" t="str">
-        <f>_xlfn.CONCAT(B13,C13)</f>
-        <v>05</v>
+        <f t="shared" si="0"/>
+        <v>04</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>221</v>
+        <v>188</v>
       </c>
       <c r="D14" s="3" t="str">
-        <f>_xlfn.CONCAT(B14,C14)</f>
-        <v>05S</v>
+        <f t="shared" si="0"/>
+        <v>04</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>220</v>
+        <v>188</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="D15" s="3" t="str">
-        <f>_xlfn.CONCAT(B15,C15)</f>
-        <v>05S</v>
+        <f t="shared" si="0"/>
+        <v>04911</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="D16" s="3" t="str">
-        <f>_xlfn.CONCAT(B16,C16)</f>
-        <v>06</v>
+        <f t="shared" si="0"/>
+        <v>05</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>227</v>
+        <v>217</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>218</v>
       </c>
       <c r="D17" s="3" t="str">
-        <f>_xlfn.CONCAT(B17,C17)</f>
-        <v>06</v>
+        <f t="shared" si="0"/>
+        <v>05S</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>114</v>
+        <v>276</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>227</v>
+        <v>217</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>218</v>
       </c>
       <c r="D18" s="3" t="str">
-        <f>_xlfn.CONCAT(B18,C18)</f>
-        <v>06</v>
+        <f t="shared" si="0"/>
+        <v>05S</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>227</v>
+        <v>217</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>218</v>
       </c>
       <c r="D19" s="3" t="str">
-        <f>_xlfn.CONCAT(B19,C19)</f>
-        <v>06</v>
+        <f t="shared" si="0"/>
+        <v>05S</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>166</v>
+        <v>297</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D20" s="3" t="str">
-        <f>_xlfn.CONCAT(B20,C20)</f>
+        <f t="shared" si="0"/>
         <v>06</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>91</v>
+        <v>287</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D21" s="3" t="str">
-        <f>_xlfn.CONCAT(B21,C21)</f>
-        <v>08</v>
+        <f t="shared" si="0"/>
+        <v>06</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D22" s="3" t="str">
-        <f>_xlfn.CONCAT(B22,C22)</f>
-        <v>08</v>
+        <f t="shared" si="0"/>
+        <v>06</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D23" s="3" t="str">
-        <f>_xlfn.CONCAT(B23,C23)</f>
-        <v>08</v>
+        <f t="shared" si="0"/>
+        <v>06</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>107</v>
+        <v>308</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D24" s="3" t="str">
-        <f>_xlfn.CONCAT(B24,C24)</f>
-        <v>08</v>
+        <f t="shared" si="0"/>
+        <v>06</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D25" s="3" t="str">
-        <f>_xlfn.CONCAT(B25,C25)</f>
-        <v>08</v>
+        <f t="shared" si="0"/>
+        <v>06</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="D26" s="3" t="str">
-        <f>_xlfn.CONCAT(B26,C26)</f>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>06</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>163</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="D27" s="3" t="str">
-        <f>_xlfn.CONCAT(B27,C27)</f>
-        <v>10LS</v>
+        <f t="shared" si="0"/>
+        <v>06</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>71</v>
+        <v>305</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>189</v>
+        <v>219</v>
       </c>
       <c r="D28" s="3" t="str">
-        <f>_xlfn.CONCAT(B28,C28)</f>
-        <v>10LS</v>
+        <f t="shared" si="0"/>
+        <v>08</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>189</v>
+        <v>219</v>
       </c>
       <c r="D29" s="3" t="str">
-        <f>_xlfn.CONCAT(B29,C29)</f>
-        <v>10LS</v>
+        <f t="shared" si="0"/>
+        <v>08</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>81</v>
+        <v>294</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>189</v>
+        <v>219</v>
       </c>
       <c r="D30" s="3" t="str">
-        <f>_xlfn.CONCAT(B30,C30)</f>
-        <v>10LS</v>
+        <f t="shared" si="0"/>
+        <v>08</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>132</v>
+        <v>280</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="D31" s="3" t="str">
-        <f>_xlfn.CONCAT(B31,C31)</f>
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>08</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>152</v>
+        <v>89</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>249</v>
+        <v>219</v>
       </c>
       <c r="D32" s="3" t="str">
-        <f>_xlfn.CONCAT(B32,C32)</f>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>08</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>156</v>
+        <v>90</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D33" s="3" t="str">
-        <f>_xlfn.CONCAT(B33,C33)</f>
-        <v>12D</v>
+        <f t="shared" si="0"/>
+        <v>08</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>153</v>
+        <v>104</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D34" s="3" t="str">
-        <f>_xlfn.CONCAT(B34,C34)</f>
-        <v>12S</v>
+        <f t="shared" si="0"/>
+        <v>08</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>154</v>
+        <v>106</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D35" s="3" t="str">
-        <f>_xlfn.CONCAT(B35,C35)</f>
-        <v>12S</v>
+        <f t="shared" si="0"/>
+        <v>08</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>155</v>
+        <v>302</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="D36" s="3" t="str">
-        <f>_xlfn.CONCAT(B36,C36)</f>
-        <v>12S</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>157</v>
+        <v>76</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>243</v>
+        <v>210</v>
       </c>
       <c r="D37" s="3" t="str">
-        <f>_xlfn.CONCAT(B37,C37)</f>
-        <v>12T</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>202</v>
+        <v>210</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>186</v>
       </c>
       <c r="D38" s="3" t="str">
-        <f>_xlfn.CONCAT(B38,C38)</f>
-        <v>13</v>
+        <f t="shared" si="0"/>
+        <v>10LS</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>137</v>
+        <v>68</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>242</v>
+        <v>210</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>186</v>
       </c>
       <c r="D39" s="3" t="str">
-        <f>_xlfn.CONCAT(B39,C39)</f>
-        <v>14</v>
+        <f t="shared" si="0"/>
+        <v>10LS</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>254</v>
+        <v>69</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>224</v>
+        <v>210</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>186</v>
       </c>
       <c r="D40" s="3" t="str">
-        <f>_xlfn.CONCAT(B40,C40)</f>
-        <v>15</v>
+        <f t="shared" si="0"/>
+        <v>10LS</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>224</v>
+        <v>210</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>186</v>
       </c>
       <c r="D41" s="3" t="str">
-        <f>_xlfn.CONCAT(B41,C41)</f>
-        <v>15</v>
+        <f t="shared" si="0"/>
+        <v>10LS</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="D42" s="3" t="str">
-        <f>_xlfn.CONCAT(B42,C42)</f>
-        <v>15</v>
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>104</v>
+        <v>149</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="D43" s="3" t="str">
-        <f>_xlfn.CONCAT(B43,C43)</f>
-        <v>15</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>105</v>
+        <v>153</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>224</v>
+        <v>246</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>212</v>
       </c>
       <c r="D44" s="3" t="str">
-        <f>_xlfn.CONCAT(B44,C44)</f>
-        <v>15</v>
+        <f t="shared" si="0"/>
+        <v>12D</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>106</v>
+        <v>150</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>224</v>
+        <v>246</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>218</v>
       </c>
       <c r="D45" s="3" t="str">
-        <f>_xlfn.CONCAT(B45,C45)</f>
-        <v>15</v>
+        <f t="shared" ref="D45:D82" si="1">_xlfn.CONCAT(B45,C45)</f>
+        <v>12S</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>233</v>
+        <v>246</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>218</v>
       </c>
       <c r="D46" s="3" t="str">
-        <f>_xlfn.CONCAT(B46,C46)</f>
-        <v>16</v>
+        <f t="shared" si="1"/>
+        <v>12S</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>128</v>
+        <v>152</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>233</v>
+        <v>246</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>218</v>
       </c>
       <c r="D47" s="3" t="str">
-        <f>_xlfn.CONCAT(B47,C47)</f>
-        <v>16</v>
+        <f t="shared" si="1"/>
+        <v>12S</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>129</v>
+        <v>300</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>234</v>
+        <v>246</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="D48" s="3" t="str">
-        <f>_xlfn.CONCAT(B48,C48)</f>
-        <v>16</v>
+        <f t="shared" si="1"/>
+        <v>12T</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>233</v>
+        <v>246</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="D49" s="3" t="str">
-        <f>_xlfn.CONCAT(B49,C49)</f>
-        <v>16</v>
+        <f t="shared" si="1"/>
+        <v>12T</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="D50" s="3" t="str">
-        <f>_xlfn.CONCAT(B50,C50)</f>
-        <v>17</v>
+        <f t="shared" si="1"/>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>1</v>
+        <v>134</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>172</v>
+        <v>239</v>
       </c>
       <c r="D51" s="3" t="str">
-        <f>_xlfn.CONCAT(B51,C51)</f>
-        <v>18</v>
+        <f t="shared" si="1"/>
+        <v>14</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>138</v>
+        <v>306</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="D52" s="3" t="str">
-        <f>_xlfn.CONCAT(B52,C52)</f>
-        <v>20</v>
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>136</v>
+        <v>295</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="D53" s="3" t="str">
-        <f>_xlfn.CONCAT(B53,C53)</f>
-        <v>20SR</v>
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>140</v>
+        <v>277</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="D54" s="3" t="str">
-        <f>_xlfn.CONCAT(B54,C54)</f>
-        <v>20SR</v>
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>135</v>
+        <v>251</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="D55" s="3" t="str">
-        <f>_xlfn.CONCAT(B55,C55)</f>
-        <v>20SS</v>
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="D56" s="3" t="str">
-        <f>_xlfn.CONCAT(B56,C56)</f>
-        <v>20SS</v>
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>257</v>
+        <v>100</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="D57" s="3" t="str">
-        <f>_xlfn.CONCAT(B57,C57)</f>
-        <v>20U</v>
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>141</v>
+        <v>101</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="D58" s="3" t="str">
-        <f>_xlfn.CONCAT(B58,C58)</f>
-        <v>20U</v>
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>142</v>
+        <v>102</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="D59" s="3" t="str">
-        <f>_xlfn.CONCAT(B59,C59)</f>
-        <v>20U</v>
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>143</v>
+        <v>103</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="D60" s="3" t="str">
-        <f>_xlfn.CONCAT(B60,C60)</f>
-        <v>20U</v>
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>61</v>
+        <v>124</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="D61" s="3" t="str">
-        <f>_xlfn.CONCAT(B61,C61)</f>
-        <v>22</v>
+        <f t="shared" si="1"/>
+        <v>16</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="D62" s="3" t="str">
-        <f>_xlfn.CONCAT(B62,C62)</f>
-        <v>22</v>
+        <f t="shared" si="1"/>
+        <v>16</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D63" s="3" t="str">
-        <f>_xlfn.CONCAT(B63,C63)</f>
-        <v>23</v>
+        <f t="shared" si="1"/>
+        <v>16</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="D64" s="3" t="str">
-        <f>_xlfn.CONCAT(B64,C64)</f>
-        <v>24</v>
+        <f t="shared" si="1"/>
+        <v>16</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>264</v>
+        <v>310</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>226</v>
+        <v>189</v>
       </c>
       <c r="D65" s="3" t="str">
-        <f>_xlfn.CONCAT(B65,C65)</f>
-        <v>24</v>
+        <f t="shared" si="1"/>
+        <v>17</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>255</v>
+        <v>28</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>226</v>
+        <v>189</v>
       </c>
       <c r="D66" s="3" t="str">
-        <f>_xlfn.CONCAT(B66,C66)</f>
-        <v>24</v>
+        <f t="shared" si="1"/>
+        <v>17</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>121</v>
+        <v>1</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>226</v>
+        <v>169</v>
       </c>
       <c r="D67" s="3" t="str">
-        <f>_xlfn.CONCAT(B67,C67)</f>
-        <v>24</v>
+        <f t="shared" si="1"/>
+        <v>18</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>51</v>
+        <v>135</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>204</v>
+        <v>236</v>
       </c>
       <c r="D68" s="3" t="str">
-        <f>_xlfn.CONCAT(B68,C68)</f>
-        <v>25</v>
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>253</v>
+        <v>133</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>204</v>
+        <v>236</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>205</v>
+        <v>238</v>
       </c>
       <c r="D69" s="3" t="str">
-        <f>_xlfn.CONCAT(B69,C69)</f>
-        <v>25V</v>
+        <f t="shared" si="1"/>
+        <v>20SR</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>52</v>
+        <v>137</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>204</v>
+        <v>236</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>205</v>
+        <v>238</v>
       </c>
       <c r="D70" s="3" t="str">
-        <f>_xlfn.CONCAT(B70,C70)</f>
-        <v>25V</v>
+        <f t="shared" si="1"/>
+        <v>20SR</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>53</v>
+        <v>132</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>204</v>
+        <v>236</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="D71" s="3" t="str">
-        <f>_xlfn.CONCAT(B71,C71)</f>
-        <v>25V</v>
+        <f t="shared" si="1"/>
+        <v>20SS</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>204</v>
+        <v>236</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="D72" s="3" t="str">
-        <f>_xlfn.CONCAT(B72,C72)</f>
-        <v>25V</v>
+        <f t="shared" si="1"/>
+        <v>20SS</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>77</v>
+        <v>254</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>204</v>
+        <v>236</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>205</v>
+        <v>240</v>
       </c>
       <c r="D73" s="3" t="str">
-        <f>_xlfn.CONCAT(B73,C73)</f>
-        <v>25V</v>
+        <f t="shared" si="1"/>
+        <v>20T</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>204</v>
+        <v>236</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>205</v>
+        <v>240</v>
       </c>
       <c r="D74" s="3" t="str">
-        <f>_xlfn.CONCAT(B74,C74)</f>
-        <v>25V</v>
+        <f t="shared" si="1"/>
+        <v>20T</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>73</v>
+        <v>139</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>214</v>
+        <v>236</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="D75" s="3" t="str">
-        <f>_xlfn.CONCAT(B75,C75)</f>
-        <v>26</v>
+        <f t="shared" si="1"/>
+        <v>20T</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>75</v>
+        <v>140</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>214</v>
+        <v>236</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>241</v>
       </c>
       <c r="D76" s="3" t="str">
-        <f>_xlfn.CONCAT(B76,C76)</f>
-        <v>26</v>
+        <f t="shared" si="1"/>
+        <v>20U</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>263</v>
+        <v>58</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="D77" s="3" t="str">
-        <f>_xlfn.CONCAT(B77,C77)</f>
-        <v>26D</v>
+        <f t="shared" si="1"/>
+        <v>22</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="D78" s="3" t="str">
-        <f>_xlfn.CONCAT(B78,C78)</f>
-        <v>26D</v>
+        <f t="shared" si="1"/>
+        <v>22</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>6</v>
+        <v>130</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>176</v>
+        <v>234</v>
       </c>
       <c r="D79" s="3" t="str">
-        <f>_xlfn.CONCAT(B79,C79)</f>
-        <v>27</v>
+        <f t="shared" si="1"/>
+        <v>23</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>65</v>
+        <v>307</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>176</v>
+        <v>223</v>
       </c>
       <c r="D80" s="3" t="str">
-        <f>_xlfn.CONCAT(B80,C80)</f>
-        <v>27</v>
+        <f t="shared" si="1"/>
+        <v>24</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>66</v>
+        <v>108</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>176</v>
+        <v>223</v>
       </c>
       <c r="D81" s="3" t="str">
-        <f>_xlfn.CONCAT(B81,C81)</f>
-        <v>27</v>
+        <f t="shared" si="1"/>
+        <v>24</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>4</v>
+        <v>261</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>174</v>
+        <v>223</v>
       </c>
       <c r="D82" s="3" t="str">
-        <f>_xlfn.CONCAT(B82,C82)</f>
-        <v>29</v>
+        <f t="shared" si="1"/>
+        <v>24</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>64</v>
+        <v>252</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>174</v>
+        <v>223</v>
       </c>
       <c r="D83" s="3" t="str">
-        <f>_xlfn.CONCAT(B83,C83)</f>
-        <v>29</v>
+        <f t="shared" ref="D83:D123" si="2">_xlfn.CONCAT(B83,C83)</f>
+        <v>24</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>67</v>
+        <v>313</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="D84" s="3" t="str">
-        <f>_xlfn.CONCAT(B84,C84)</f>
-        <v>30</v>
+        <f t="shared" si="2"/>
+        <v>24</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>261</v>
+        <v>118</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="D85" s="3" t="str">
-        <f>_xlfn.CONCAT(B85,C85)</f>
-        <v>30</v>
+        <f t="shared" si="2"/>
+        <v>24</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>160</v>
+        <v>48</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="D86" s="3" t="str">
-        <f>_xlfn.CONCAT(B86,C86)</f>
-        <v>30</v>
+        <f t="shared" si="2"/>
+        <v>25</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>161</v>
+        <v>274</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>202</v>
       </c>
       <c r="D87" s="3" t="str">
-        <f>_xlfn.CONCAT(B87,C87)</f>
-        <v>30</v>
+        <f t="shared" si="2"/>
+        <v>25V</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>162</v>
+        <v>250</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>202</v>
       </c>
       <c r="D88" s="3" t="str">
-        <f>_xlfn.CONCAT(B88,C88)</f>
-        <v>30</v>
+        <f t="shared" si="2"/>
+        <v>25V</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>144</v>
+        <v>49</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>245</v>
+        <v>201</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>202</v>
       </c>
       <c r="D89" s="3" t="str">
-        <f>_xlfn.CONCAT(B89,C89)</f>
-        <v>31</v>
+        <f t="shared" si="2"/>
+        <v>25V</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>258</v>
+        <v>50</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>233</v>
+        <v>201</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>259</v>
+        <v>202</v>
       </c>
       <c r="D90" s="3" t="str">
-        <f>_xlfn.CONCAT(B90,C90)</f>
-        <v>16SC</v>
+        <f t="shared" si="2"/>
+        <v>25V</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>207</v>
+        <v>201</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>202</v>
       </c>
       <c r="D91" s="3" t="str">
-        <f>_xlfn.CONCAT(B91,C91)</f>
-        <v>32</v>
+        <f t="shared" si="2"/>
+        <v>25V</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>207</v>
+        <v>201</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>202</v>
       </c>
       <c r="D92" s="3" t="str">
-        <f>_xlfn.CONCAT(B92,C92)</f>
-        <v>32</v>
+        <f t="shared" si="2"/>
+        <v>25V</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>171</v>
+        <v>201</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>202</v>
       </c>
       <c r="D93" s="3" t="str">
-        <f>_xlfn.CONCAT(B93,C93)</f>
-        <v>34</v>
+        <f t="shared" si="2"/>
+        <v>25V</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="D94" s="3" t="str">
-        <f>_xlfn.CONCAT(B94,C94)</f>
-        <v>35</v>
+        <f t="shared" si="2"/>
+        <v>26</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="D95" s="3" t="str">
-        <f>_xlfn.CONCAT(B95,C95)</f>
-        <v>35</v>
+        <f t="shared" si="2"/>
+        <v>26</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>33</v>
+        <v>260</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="D96" s="3" t="str">
-        <f>_xlfn.CONCAT(B96,C96)</f>
-        <v>35BS</v>
+        <f t="shared" si="2"/>
+        <v>26D</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="D97" s="3" t="str">
-        <f>_xlfn.CONCAT(B97,C97)</f>
-        <v>35CC</v>
+        <f t="shared" si="2"/>
+        <v>26D</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>34</v>
+        <v>314</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="D98" s="3" t="str">
-        <f>_xlfn.CONCAT(B98,C98)</f>
-        <v>35CC</v>
+        <f t="shared" si="2"/>
+        <v>27</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>37</v>
+        <v>301</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="D99" s="3" t="str">
-        <f>_xlfn.CONCAT(B99,C99)</f>
-        <v>35EB</v>
+        <f t="shared" ref="D99" si="3">_xlfn.CONCAT(B99,C99)</f>
+        <v>27</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>38</v>
+        <v>275</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="D100" s="3" t="str">
-        <f>_xlfn.CONCAT(B100,C100)</f>
-        <v>35EB</v>
+        <f t="shared" si="2"/>
+        <v>27</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="D101" s="3" t="str">
-        <f>_xlfn.CONCAT(B101,C101)</f>
-        <v>35HA</v>
+        <f t="shared" si="2"/>
+        <v>27</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="D102" s="3" t="str">
-        <f>_xlfn.CONCAT(B102,C102)</f>
-        <v>35HA</v>
+        <f t="shared" si="2"/>
+        <v>27</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="D103" s="3" t="str">
-        <f>_xlfn.CONCAT(B103,C103)</f>
-        <v>35IN</v>
+        <f t="shared" si="2"/>
+        <v>27</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>41</v>
+        <v>290</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>197</v>
+        <v>289</v>
       </c>
       <c r="D104" s="3" t="str">
-        <f>_xlfn.CONCAT(B104,C104)</f>
-        <v>35IN</v>
+        <f t="shared" si="2"/>
+        <v>28</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>63</v>
+        <v>4</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="D105" s="3" t="str">
-        <f>_xlfn.CONCAT(B105,C105)</f>
-        <v>35IN</v>
+        <f t="shared" si="2"/>
+        <v>29</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>252</v>
+        <v>61</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="D106" s="3" t="str">
-        <f>_xlfn.CONCAT(B106,C106)</f>
-        <v>35PGW</v>
+        <f t="shared" si="2"/>
+        <v>29</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>42</v>
+        <v>286</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="D107" s="3" t="str">
-        <f>_xlfn.CONCAT(B107,C107)</f>
-        <v>35PGW</v>
+        <f t="shared" ref="D107" si="4">_xlfn.CONCAT(B107,C107)</f>
+        <v>30</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="D108" s="3" t="str">
-        <f>_xlfn.CONCAT(B108,C108)</f>
-        <v>35PGW</v>
+        <f t="shared" si="2"/>
+        <v>30</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>44</v>
+        <v>258</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="D109" s="3" t="str">
-        <f>_xlfn.CONCAT(B109,C109)</f>
-        <v>35R</v>
+        <f t="shared" si="2"/>
+        <v>30</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="D110" s="3" t="str">
-        <f>_xlfn.CONCAT(B110,C110)</f>
-        <v>35R</v>
+        <f t="shared" si="2"/>
+        <v>30</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>45</v>
+        <v>309</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="D111" s="3" t="str">
-        <f>_xlfn.CONCAT(B111,C111)</f>
-        <v>35R32</v>
+        <f t="shared" si="2"/>
+        <v>30</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>35</v>
+        <v>158</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="D112" s="3" t="str">
-        <f>_xlfn.CONCAT(B112,C112)</f>
-        <v>35SD</v>
+        <f t="shared" si="2"/>
+        <v>30</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>36</v>
+        <v>159</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
       <c r="D113" s="3" t="str">
-        <f>_xlfn.CONCAT(B113,C113)</f>
-        <v>35SD</v>
+        <f t="shared" si="2"/>
+        <v>57</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>46</v>
+        <v>141</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>194</v>
+        <v>242</v>
       </c>
       <c r="D114" s="3" t="str">
-        <f>_xlfn.CONCAT(B114,C114)</f>
-        <v>35SD</v>
+        <f t="shared" si="2"/>
+        <v>31</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>47</v>
+        <v>255</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>187</v>
+        <v>230</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>194</v>
+        <v>256</v>
       </c>
       <c r="D115" s="3" t="str">
-        <f>_xlfn.CONCAT(B115,C115)</f>
-        <v>35SD</v>
+        <f t="shared" si="2"/>
+        <v>16SC</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>163</v>
+        <v>54</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="D116" s="3" t="str">
-        <f>_xlfn.CONCAT(B116,C116)</f>
-        <v>35SD</v>
+        <f t="shared" si="2"/>
+        <v>32</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D117" s="3" t="str">
-        <f>_xlfn.CONCAT(B117,C117)</f>
-        <v>35WF</v>
+        <f t="shared" si="2"/>
+        <v>32</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>158</v>
+        <v>266</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>201</v>
+        <v>168</v>
       </c>
       <c r="D118" s="3" t="str">
-        <f>_xlfn.CONCAT(B118,C118)</f>
-        <v>35WF</v>
+        <f t="shared" si="2"/>
+        <v>34</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>148</v>
+        <v>0</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>247</v>
+        <v>168</v>
       </c>
       <c r="D119" s="3" t="str">
-        <f>_xlfn.CONCAT(B119,C119)</f>
-        <v>36</v>
+        <f t="shared" si="2"/>
+        <v>34</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D120" s="3" t="str">
-        <f>_xlfn.CONCAT(B120,C120)</f>
-        <v>37</v>
+        <f t="shared" si="2"/>
+        <v>35</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D121" s="3" t="str">
-        <f>_xlfn.CONCAT(B121,C121)</f>
-        <v>37</v>
+        <f t="shared" si="2"/>
+        <v>35</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" t="s">
-        <v>149</v>
+        <v>30</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>190</v>
       </c>
       <c r="D122" s="3" t="str">
-        <f>_xlfn.CONCAT(B122,C122)</f>
-        <v>37</v>
+        <f t="shared" si="2"/>
+        <v>35BS</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>151</v>
+        <v>21</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>182</v>
       </c>
       <c r="D123" s="3" t="str">
-        <f>_xlfn.CONCAT(B123,C123)</f>
-        <v>37</v>
+        <f t="shared" si="2"/>
+        <v>35CC</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" t="s">
-        <v>134</v>
+        <v>31</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>238</v>
+        <v>184</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>182</v>
       </c>
       <c r="D124" s="3" t="str">
-        <f>_xlfn.CONCAT(B124,C124)</f>
-        <v>38</v>
+        <f t="shared" ref="D124:D163" si="5">_xlfn.CONCAT(B124,C124)</f>
+        <v>35CC</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" t="s">
-        <v>17</v>
+        <v>285</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="D125" s="3" t="str">
-        <f>_xlfn.CONCAT(B125,C125)</f>
-        <v>40</v>
+        <f t="shared" si="5"/>
+        <v>35EB</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" t="s">
-        <v>15</v>
+        <v>284</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="D126" s="3" t="str">
-        <f>_xlfn.CONCAT(B126,C126)</f>
-        <v>41</v>
+        <f t="shared" ref="D126" si="6">_xlfn.CONCAT(B126,C126)</f>
+        <v>35EB</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" t="s">
-        <v>260</v>
+        <v>34</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="D127" s="3" t="str">
-        <f>_xlfn.CONCAT(B127,C127)</f>
-        <v>41</v>
+        <f t="shared" si="5"/>
+        <v>35EB</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="D128" s="3" t="str">
-        <f>_xlfn.CONCAT(B128,C128)</f>
-        <v>41</v>
+        <f t="shared" si="5"/>
+        <v>35EB</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" t="s">
-        <v>21</v>
+        <v>273</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>184</v>
       </c>
+      <c r="C129" s="2" t="s">
+        <v>192</v>
+      </c>
       <c r="D129" s="3" t="str">
-        <f>_xlfn.CONCAT(B129,C129)</f>
-        <v>42</v>
+        <f t="shared" si="5"/>
+        <v>35EB</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" t="s">
-        <v>262</v>
+        <v>36</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>184</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="D130" s="3" t="str">
-        <f>_xlfn.CONCAT(B130,C130)</f>
-        <v>42CC</v>
+        <f t="shared" si="5"/>
+        <v>35HA</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>184</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="D131" s="3" t="str">
-        <f>_xlfn.CONCAT(B131,C131)</f>
-        <v>42CC</v>
+        <f t="shared" si="5"/>
+        <v>35HA</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>184</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="D132" s="3" t="str">
-        <f>_xlfn.CONCAT(B132,C132)</f>
-        <v>42CC</v>
+        <f t="shared" si="5"/>
+        <v>35IN</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>184</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="D133" s="3" t="str">
-        <f>_xlfn.CONCAT(B133,C133)</f>
-        <v>42ES</v>
+        <f t="shared" si="5"/>
+        <v>35IN</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>212</v>
+        <v>184</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>194</v>
       </c>
       <c r="D134" s="3" t="str">
-        <f>_xlfn.CONCAT(B134,C134)</f>
-        <v>44</v>
+        <f t="shared" si="5"/>
+        <v>35IN</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" t="s">
-        <v>5</v>
+        <v>249</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>175</v>
+        <v>184</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="D135" s="3" t="str">
-        <f>_xlfn.CONCAT(B135,C135)</f>
-        <v>45</v>
+        <f t="shared" si="5"/>
+        <v>35PGW</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" t="s">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>223</v>
+        <v>184</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="D136" s="3" t="str">
-        <f>_xlfn.CONCAT(B136,C136)</f>
-        <v>46</v>
+        <f t="shared" si="5"/>
+        <v>35PGW</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" t="s">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>223</v>
+        <v>184</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="D137" s="3" t="str">
-        <f>_xlfn.CONCAT(B137,C137)</f>
-        <v>46</v>
+        <f t="shared" si="5"/>
+        <v>35PGW</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" t="s">
-        <v>97</v>
+        <v>41</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>223</v>
+        <v>184</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>196</v>
       </c>
       <c r="D138" s="3" t="str">
-        <f>_xlfn.CONCAT(B138,C138)</f>
-        <v>46</v>
+        <f t="shared" si="5"/>
+        <v>35R</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>223</v>
+        <v>184</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>196</v>
       </c>
       <c r="D139" s="3" t="str">
-        <f>_xlfn.CONCAT(B139,C139)</f>
-        <v>46</v>
+        <f t="shared" si="5"/>
+        <v>35R</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" t="s">
-        <v>159</v>
+        <v>270</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>250</v>
+        <v>184</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>197</v>
       </c>
       <c r="D140" s="3" t="str">
-        <f>_xlfn.CONCAT(B140,C140)</f>
-        <v>47</v>
+        <f t="shared" si="5"/>
+        <v>35R32</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" t="s">
-        <v>125</v>
+        <v>42</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>232</v>
+        <v>184</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>197</v>
       </c>
       <c r="D141" s="3" t="str">
-        <f>_xlfn.CONCAT(B141,C141)</f>
-        <v>48</v>
+        <f t="shared" si="5"/>
+        <v>35R32</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" t="s">
-        <v>126</v>
+        <v>32</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>232</v>
+        <v>184</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>191</v>
       </c>
       <c r="D142" s="3" t="str">
-        <f>_xlfn.CONCAT(B142,C142)</f>
-        <v>48</v>
+        <f t="shared" si="5"/>
+        <v>35SD</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" t="s">
-        <v>122</v>
+        <v>33</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>231</v>
+        <v>184</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>191</v>
       </c>
       <c r="D143" s="3" t="str">
-        <f>_xlfn.CONCAT(B143,C143)</f>
-        <v>49</v>
+        <f t="shared" si="5"/>
+        <v>35SD</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>216</v>
+        <v>184</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>191</v>
       </c>
       <c r="D144" s="3" t="str">
-        <f>_xlfn.CONCAT(B144,C144)</f>
-        <v>50</v>
+        <f t="shared" si="5"/>
+        <v>35SD</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>216</v>
+        <v>184</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>191</v>
       </c>
       <c r="D145" s="3" t="str">
-        <f>_xlfn.CONCAT(B145,C145)</f>
-        <v>50</v>
+        <f t="shared" si="5"/>
+        <v>35SD</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" t="s">
-        <v>98</v>
+        <v>160</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>216</v>
+        <v>184</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>191</v>
       </c>
       <c r="D146" s="3" t="str">
-        <f>_xlfn.CONCAT(B146,C146)</f>
-        <v>50</v>
+        <f t="shared" si="5"/>
+        <v>35SD</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>198</v>
       </c>
       <c r="D147" s="3" t="str">
-        <f>_xlfn.CONCAT(B147,C147)</f>
-        <v>51</v>
+        <f t="shared" si="5"/>
+        <v>35WF</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" t="s">
-        <v>14</v>
+        <v>155</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>198</v>
       </c>
       <c r="D148" s="3" t="str">
-        <f>_xlfn.CONCAT(B148,C148)</f>
-        <v>51</v>
+        <f t="shared" si="5"/>
+        <v>35WF</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" t="s">
-        <v>54</v>
+        <v>268</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>206</v>
+        <v>184</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>269</v>
       </c>
       <c r="D149" s="3" t="str">
-        <f>_xlfn.CONCAT(B149,C149)</f>
-        <v>52</v>
+        <f t="shared" si="5"/>
+        <v>35BSR</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" t="s">
-        <v>59</v>
+        <v>271</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>208</v>
+        <v>184</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>272</v>
       </c>
       <c r="D150" s="3" t="str">
-        <f>_xlfn.CONCAT(B150,C150)</f>
-        <v>54</v>
+        <f t="shared" si="5"/>
+        <v>35RR</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" t="s">
-        <v>60</v>
+        <v>282</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>208</v>
+        <v>184</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>283</v>
       </c>
       <c r="D151" s="3" t="str">
-        <f>_xlfn.CONCAT(B151,C151)</f>
-        <v>54</v>
+        <f t="shared" si="5"/>
+        <v>35FGR</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" t="s">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>183</v>
+        <v>244</v>
       </c>
       <c r="D152" s="3" t="str">
-        <f>_xlfn.CONCAT(B152,C152)</f>
-        <v>55</v>
+        <f t="shared" si="5"/>
+        <v>36</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D153" s="3" t="str">
-        <f>_xlfn.CONCAT(B153,C153)</f>
-        <v>55</v>
+        <f t="shared" si="5"/>
+        <v>37</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" t="s">
-        <v>116</v>
+        <v>52</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>228</v>
+        <v>185</v>
       </c>
       <c r="D154" s="3" t="str">
-        <f>_xlfn.CONCAT(B154,C154)</f>
-        <v>56</v>
+        <f t="shared" si="5"/>
+        <v>37</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>228</v>
+        <v>185</v>
       </c>
       <c r="D155" s="3" t="str">
-        <f>_xlfn.CONCAT(B155,C155)</f>
-        <v>56</v>
+        <f t="shared" si="5"/>
+        <v>37</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" t="s">
-        <v>99</v>
+        <v>148</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="D156" s="3" t="str">
-        <f>_xlfn.CONCAT(B156,C156)</f>
-        <v>58</v>
+        <f t="shared" si="5"/>
+        <v>37</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="D157" s="3" t="str">
-        <f>_xlfn.CONCAT(B157,C157)</f>
-        <v>58</v>
+        <f t="shared" si="5"/>
+        <v>38</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>251</v>
+        <v>179</v>
       </c>
       <c r="D158" s="3" t="str">
-        <f>_xlfn.CONCAT(B158,C158)</f>
-        <v>58</v>
+        <f t="shared" si="5"/>
+        <v>40</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" t="s">
-        <v>164</v>
+        <v>13</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>251</v>
+        <v>178</v>
       </c>
       <c r="D159" s="3" t="str">
-        <f>_xlfn.CONCAT(B159,C159)</f>
-        <v>58</v>
+        <f t="shared" si="5"/>
+        <v>41</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" t="s">
-        <v>165</v>
+        <v>257</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>251</v>
+        <v>178</v>
       </c>
       <c r="D160" s="3" t="str">
-        <f>_xlfn.CONCAT(B160,C160)</f>
-        <v>58</v>
+        <f t="shared" si="5"/>
+        <v>41</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" t="s">
-        <v>120</v>
+        <v>14</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>230</v>
+        <v>178</v>
       </c>
       <c r="D161" s="3" t="str">
-        <f>_xlfn.CONCAT(B161,C161)</f>
-        <v>59</v>
+        <f t="shared" si="5"/>
+        <v>41</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" t="s">
-        <v>2</v>
+        <v>263</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D162" s="3" t="str">
-        <f>_xlfn.CONCAT(B162,C162)</f>
-        <v>61</v>
+        <f t="shared" ref="D162" si="7">_xlfn.CONCAT(B162,C162)</f>
+        <v>41</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="D163" s="3" t="str">
-        <f>_xlfn.CONCAT(B163,C163)</f>
-        <v>61</v>
+        <f t="shared" si="5"/>
+        <v>42</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" t="s">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>219</v>
+        <v>181</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>182</v>
       </c>
       <c r="D164" s="3" t="str">
-        <f>_xlfn.CONCAT(B164,C164)</f>
-        <v>62</v>
+        <f t="shared" ref="D164:D202" si="8">_xlfn.CONCAT(B164,C164)</f>
+        <v>42CC</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" t="s">
-        <v>119</v>
+        <v>22</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>219</v>
+        <v>181</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>182</v>
       </c>
       <c r="D165" s="3" t="str">
-        <f>_xlfn.CONCAT(B165,C165)</f>
-        <v>62</v>
+        <f t="shared" si="8"/>
+        <v>42CC</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="D166" s="3" t="str">
-        <f>_xlfn.CONCAT(B166,C166)</f>
-        <v>63</v>
+        <f t="shared" si="8"/>
+        <v>42ES</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" t="s">
-        <v>85</v>
+        <v>259</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>218</v>
+        <v>264</v>
       </c>
       <c r="D167" s="3" t="str">
         <f>_xlfn.CONCAT(B167,C167)</f>
-        <v>65</v>
+        <v>43</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" t="s">
-        <v>124</v>
+        <v>67</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="D168" s="3" t="str">
-        <f>_xlfn.CONCAT(B168,C168)</f>
-        <v>65</v>
+        <f t="shared" si="8"/>
+        <v>44</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" t="s">
-        <v>83</v>
+        <v>5</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>217</v>
+        <v>172</v>
       </c>
       <c r="D169" s="3" t="str">
-        <f>_xlfn.CONCAT(B169,C169)</f>
-        <v>66</v>
+        <f t="shared" si="8"/>
+        <v>45</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D170" s="3" t="str">
-        <f>_xlfn.CONCAT(B170,C170)</f>
-        <v>66</v>
+        <f t="shared" si="8"/>
+        <v>46</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" t="s">
-        <v>265</v>
+        <v>93</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D171" s="3" t="str">
-        <f>_xlfn.CONCAT(B171,C171)</f>
-        <v>66</v>
+        <f t="shared" si="8"/>
+        <v>46</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D172" s="3" t="str">
-        <f>_xlfn.CONCAT(B172,C172)</f>
-        <v>66</v>
+        <f t="shared" si="8"/>
+        <v>46</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>246</v>
+        <v>220</v>
       </c>
       <c r="D173" s="3" t="str">
-        <f>_xlfn.CONCAT(B173,C173)</f>
-        <v>68</v>
+        <f t="shared" si="8"/>
+        <v>46</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" t="s">
-        <v>29</v>
+        <v>156</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>190</v>
+        <v>247</v>
       </c>
       <c r="D174" s="3" t="str">
-        <f>_xlfn.CONCAT(B174,C174)</f>
-        <v>69</v>
+        <f t="shared" si="8"/>
+        <v>47</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" t="s">
-        <v>150</v>
+        <v>122</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="D175" s="3" t="str">
-        <f>_xlfn.CONCAT(B175,C175)</f>
-        <v>70</v>
+        <f t="shared" si="8"/>
+        <v>48</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" t="s">
-        <v>131</v>
+        <v>304</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D176" s="3" t="str">
-        <f>_xlfn.CONCAT(B176,C176)</f>
-        <v>72</v>
+        <f t="shared" si="8"/>
+        <v>48</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>178</v>
+        <v>229</v>
       </c>
       <c r="D177" s="3" t="str">
-        <f>_xlfn.CONCAT(B177,C177)</f>
-        <v>73</v>
+        <f t="shared" si="8"/>
+        <v>48</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" t="s">
-        <v>50</v>
+        <v>119</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
       <c r="D178" s="3" t="str">
-        <f>_xlfn.CONCAT(B178,C178)</f>
-        <v>84</v>
+        <f t="shared" si="8"/>
+        <v>49</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" t="s">
-        <v>8</v>
+        <v>79</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>213</v>
       </c>
       <c r="D179" s="3" t="str">
-        <f>_xlfn.CONCAT(B179,C179)</f>
-        <v/>
+        <f t="shared" si="8"/>
+        <v>50</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" t="s">
-        <v>9</v>
+        <v>85</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>213</v>
       </c>
       <c r="D180" s="3" t="str">
-        <f>_xlfn.CONCAT(B180,C180)</f>
-        <v/>
+        <f t="shared" si="8"/>
+        <v>50</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" t="s">
-        <v>20</v>
+        <v>95</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>213</v>
       </c>
       <c r="D181" s="3" t="str">
-        <f>_xlfn.CONCAT(B181,C181)</f>
+        <f t="shared" si="8"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" t="s">
+        <v>11</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D182" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" t="s">
+        <v>12</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D183" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" t="s">
+        <v>51</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D184" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" t="s">
+        <v>315</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D185" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" t="s">
+        <v>56</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D186" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" t="s">
+        <v>57</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D187" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" t="s">
+        <v>16</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D188" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" t="s">
+        <v>17</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D189" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" t="s">
+        <v>288</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D190" s="3" t="str">
+        <f t="shared" ref="D190" si="9">_xlfn.CONCAT(B190,C190)</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" t="s">
+        <v>113</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D191" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" t="s">
+        <v>127</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D192" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" t="s">
+        <v>303</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D193" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" t="s">
+        <v>281</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D194" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" t="s">
+        <v>96</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D195" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" t="s">
+        <v>97</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D196" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" t="s">
+        <v>98</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D197" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" t="s">
+        <v>161</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D198" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" t="s">
+        <v>162</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D199" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" t="s">
+        <v>311</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D200" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" t="s">
+        <v>312</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D201" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" t="s">
+        <v>117</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D202" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" t="s">
+        <v>2</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D203" s="3" t="str">
+        <f t="shared" ref="D203:D228" si="10">_xlfn.CONCAT(B203,C203)</f>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" t="s">
+        <v>279</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D204" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" t="s">
+        <v>3</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D205" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" t="s">
+        <v>83</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D206" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" t="s">
+        <v>116</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D207" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" t="s">
+        <v>317</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D208" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" t="s">
+        <v>7</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D209" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" t="s">
+        <v>298</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D210" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" t="s">
+        <v>82</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D211" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" t="s">
+        <v>121</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D212" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" t="s">
+        <v>80</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D213" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" t="s">
+        <v>105</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D214" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" t="s">
+        <v>296</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D215" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" t="s">
+        <v>262</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D216" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" t="s">
+        <v>107</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D217" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" t="s">
+        <v>292</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D218" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" t="s">
+        <v>144</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D219" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" t="s">
+        <v>26</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D220" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" t="s">
+        <v>147</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D221" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" t="s">
+        <v>128</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D222" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" t="s">
+        <v>267</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D223" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" t="s">
+        <v>8</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D224" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" t="s">
+        <v>47</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D225" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="B226"/>
+      <c r="C226"/>
+      <c r="D226" s="3" t="str">
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
+    <row r="227" spans="1:4">
+      <c r="B227"/>
+      <c r="C227"/>
+      <c r="D227" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="B228"/>
+      <c r="C228"/>
+      <c r="D228" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D181" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D181">
-      <sortCondition ref="B1:B181"/>
+  <autoFilter ref="A1:D228" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D228">
+      <sortCondition ref="B1:B228"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/billy_penn/data/dept_names_lookup.xlsx
+++ b/billy_penn/data/dept_names_lookup.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholashand/Software/billy-penn/billy_penn/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E9ADA37-8F35-6F4D-81D0-A40E590F6A63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C09160-6D52-1F43-A2A4-478785D0A2B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1429,8 +1429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A185" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B208" sqref="B208"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1462,7 +1462,7 @@
         <v>176</v>
       </c>
       <c r="D2" s="3" t="str">
-        <f t="shared" ref="D2:D44" si="0">_xlfn.CONCAT(B2,C2)</f>
+        <f t="shared" ref="D2:D65" si="0">IF(C2 &lt;&gt; "",_xlfn.CONCAT(B2,_xlfn.CONCAT("-",C2)),B2)</f>
         <v>01</v>
       </c>
     </row>
@@ -1622,7 +1622,7 @@
       </c>
       <c r="D15" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>04911</v>
+        <v>04-911</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1649,7 +1649,7 @@
       </c>
       <c r="D17" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>05S</v>
+        <v>05-S</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1664,7 +1664,7 @@
       </c>
       <c r="D18" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>05S</v>
+        <v>05-S</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1679,7 +1679,7 @@
       </c>
       <c r="D19" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>05S</v>
+        <v>05-S</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1910,7 +1910,7 @@
       </c>
       <c r="D38" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>10LS</v>
+        <v>10-LS</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1925,7 +1925,7 @@
       </c>
       <c r="D39" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>10LS</v>
+        <v>10-LS</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1940,7 +1940,7 @@
       </c>
       <c r="D40" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>10LS</v>
+        <v>10-LS</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1955,7 +1955,7 @@
       </c>
       <c r="D41" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>10LS</v>
+        <v>10-LS</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1994,7 +1994,7 @@
       </c>
       <c r="D44" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>12D</v>
+        <v>12-D</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2008,8 +2008,8 @@
         <v>218</v>
       </c>
       <c r="D45" s="3" t="str">
-        <f t="shared" ref="D45:D82" si="1">_xlfn.CONCAT(B45,C45)</f>
-        <v>12S</v>
+        <f t="shared" si="0"/>
+        <v>12-S</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2023,8 +2023,8 @@
         <v>218</v>
       </c>
       <c r="D46" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>12S</v>
+        <f t="shared" si="0"/>
+        <v>12-S</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2038,8 +2038,8 @@
         <v>218</v>
       </c>
       <c r="D47" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>12S</v>
+        <f t="shared" si="0"/>
+        <v>12-S</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2053,8 +2053,8 @@
         <v>240</v>
       </c>
       <c r="D48" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>12T</v>
+        <f t="shared" si="0"/>
+        <v>12-T</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2068,8 +2068,8 @@
         <v>240</v>
       </c>
       <c r="D49" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>12T</v>
+        <f t="shared" si="0"/>
+        <v>12-T</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2080,7 +2080,7 @@
         <v>199</v>
       </c>
       <c r="D50" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
         <v>239</v>
       </c>
       <c r="D51" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
     </row>
@@ -2104,7 +2104,7 @@
         <v>221</v>
       </c>
       <c r="D52" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
@@ -2116,7 +2116,7 @@
         <v>221</v>
       </c>
       <c r="D53" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
@@ -2128,7 +2128,7 @@
         <v>221</v>
       </c>
       <c r="D54" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
@@ -2140,7 +2140,7 @@
         <v>221</v>
       </c>
       <c r="D55" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
@@ -2152,7 +2152,7 @@
         <v>221</v>
       </c>
       <c r="D56" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
@@ -2164,7 +2164,7 @@
         <v>221</v>
       </c>
       <c r="D57" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
@@ -2176,7 +2176,7 @@
         <v>222</v>
       </c>
       <c r="D58" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
@@ -2188,7 +2188,7 @@
         <v>221</v>
       </c>
       <c r="D59" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
@@ -2200,7 +2200,7 @@
         <v>221</v>
       </c>
       <c r="D60" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
@@ -2212,7 +2212,7 @@
         <v>230</v>
       </c>
       <c r="D61" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
@@ -2224,7 +2224,7 @@
         <v>230</v>
       </c>
       <c r="D62" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
@@ -2236,7 +2236,7 @@
         <v>231</v>
       </c>
       <c r="D63" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
@@ -2248,7 +2248,7 @@
         <v>230</v>
       </c>
       <c r="D64" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
@@ -2260,7 +2260,7 @@
         <v>189</v>
       </c>
       <c r="D65" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
     </row>
@@ -2272,7 +2272,7 @@
         <v>189</v>
       </c>
       <c r="D66" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="D66:D114" si="1">IF(C66 &lt;&gt; "",_xlfn.CONCAT(B66,_xlfn.CONCAT("-",C66)),B66)</f>
         <v>17</v>
       </c>
     </row>
@@ -2312,7 +2312,7 @@
       </c>
       <c r="D69" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>20SR</v>
+        <v>20-SR</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2327,7 +2327,7 @@
       </c>
       <c r="D70" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>20SR</v>
+        <v>20-SR</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2342,7 +2342,7 @@
       </c>
       <c r="D71" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>20SS</v>
+        <v>20-SS</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2357,7 +2357,7 @@
       </c>
       <c r="D72" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>20SS</v>
+        <v>20-SS</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2372,7 +2372,7 @@
       </c>
       <c r="D73" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>20T</v>
+        <v>20-T</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="D74" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>20T</v>
+        <v>20-T</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2402,7 +2402,7 @@
       </c>
       <c r="D75" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>20T</v>
+        <v>20-T</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2417,7 +2417,7 @@
       </c>
       <c r="D76" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>20U</v>
+        <v>20-U</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2500,7 +2500,7 @@
         <v>223</v>
       </c>
       <c r="D83" s="3" t="str">
-        <f t="shared" ref="D83:D123" si="2">_xlfn.CONCAT(B83,C83)</f>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
     </row>
@@ -2512,7 +2512,7 @@
         <v>223</v>
       </c>
       <c r="D84" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
     </row>
@@ -2524,7 +2524,7 @@
         <v>223</v>
       </c>
       <c r="D85" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
     </row>
@@ -2536,7 +2536,7 @@
         <v>201</v>
       </c>
       <c r="D86" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
     </row>
@@ -2551,8 +2551,8 @@
         <v>202</v>
       </c>
       <c r="D87" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>25V</v>
+        <f t="shared" si="1"/>
+        <v>25-V</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2566,8 +2566,8 @@
         <v>202</v>
       </c>
       <c r="D88" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>25V</v>
+        <f t="shared" si="1"/>
+        <v>25-V</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2581,8 +2581,8 @@
         <v>202</v>
       </c>
       <c r="D89" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>25V</v>
+        <f t="shared" si="1"/>
+        <v>25-V</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2596,8 +2596,8 @@
         <v>202</v>
       </c>
       <c r="D90" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>25V</v>
+        <f t="shared" si="1"/>
+        <v>25-V</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2611,8 +2611,8 @@
         <v>202</v>
       </c>
       <c r="D91" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>25V</v>
+        <f t="shared" si="1"/>
+        <v>25-V</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2626,8 +2626,8 @@
         <v>202</v>
       </c>
       <c r="D92" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>25V</v>
+        <f t="shared" si="1"/>
+        <v>25-V</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2641,8 +2641,8 @@
         <v>202</v>
       </c>
       <c r="D93" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>25V</v>
+        <f t="shared" si="1"/>
+        <v>25-V</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2653,7 +2653,7 @@
         <v>211</v>
       </c>
       <c r="D94" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
     </row>
@@ -2665,7 +2665,7 @@
         <v>211</v>
       </c>
       <c r="D95" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
     </row>
@@ -2680,8 +2680,8 @@
         <v>212</v>
       </c>
       <c r="D96" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>26D</v>
+        <f t="shared" si="1"/>
+        <v>26-D</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2695,8 +2695,8 @@
         <v>212</v>
       </c>
       <c r="D97" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>26D</v>
+        <f t="shared" si="1"/>
+        <v>26-D</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2707,7 +2707,7 @@
         <v>173</v>
       </c>
       <c r="D98" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
     </row>
@@ -2719,7 +2719,7 @@
         <v>173</v>
       </c>
       <c r="D99" s="3" t="str">
-        <f t="shared" ref="D99" si="3">_xlfn.CONCAT(B99,C99)</f>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
     </row>
@@ -2731,7 +2731,7 @@
         <v>173</v>
       </c>
       <c r="D100" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
     </row>
@@ -2743,7 +2743,7 @@
         <v>173</v>
       </c>
       <c r="D101" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
     </row>
@@ -2755,7 +2755,7 @@
         <v>173</v>
       </c>
       <c r="D102" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
     </row>
@@ -2767,7 +2767,7 @@
         <v>173</v>
       </c>
       <c r="D103" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
     </row>
@@ -2779,7 +2779,7 @@
         <v>289</v>
       </c>
       <c r="D104" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
     </row>
@@ -2791,7 +2791,7 @@
         <v>171</v>
       </c>
       <c r="D105" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
     </row>
@@ -2803,7 +2803,7 @@
         <v>171</v>
       </c>
       <c r="D106" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
     </row>
@@ -2815,7 +2815,7 @@
         <v>207</v>
       </c>
       <c r="D107" s="3" t="str">
-        <f t="shared" ref="D107" si="4">_xlfn.CONCAT(B107,C107)</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
@@ -2827,7 +2827,7 @@
         <v>207</v>
       </c>
       <c r="D108" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
@@ -2839,7 +2839,7 @@
         <v>207</v>
       </c>
       <c r="D109" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
@@ -2851,7 +2851,7 @@
         <v>207</v>
       </c>
       <c r="D110" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
@@ -2863,7 +2863,7 @@
         <v>207</v>
       </c>
       <c r="D111" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
@@ -2875,7 +2875,7 @@
         <v>207</v>
       </c>
       <c r="D112" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
@@ -2887,7 +2887,7 @@
         <v>265</v>
       </c>
       <c r="D113" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>57</v>
       </c>
     </row>
@@ -2899,7 +2899,7 @@
         <v>242</v>
       </c>
       <c r="D114" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
     </row>
@@ -2914,8 +2914,8 @@
         <v>256</v>
       </c>
       <c r="D115" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>16SC</v>
+        <f>IF(C115 &lt;&gt; "",_xlfn.CONCAT(B115,_xlfn.CONCAT("-",C115)),B115)</f>
+        <v>16-SC</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2926,7 +2926,7 @@
         <v>204</v>
       </c>
       <c r="D116" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="D116:D179" si="2">IF(C116 &lt;&gt; "",_xlfn.CONCAT(B116,_xlfn.CONCAT("-",C116)),B116)</f>
         <v>32</v>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="D122" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>35BS</v>
+        <v>35-BS</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3017,7 +3017,7 @@
       </c>
       <c r="D123" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>35CC</v>
+        <v>35-CC</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3031,8 +3031,8 @@
         <v>182</v>
       </c>
       <c r="D124" s="3" t="str">
-        <f t="shared" ref="D124:D163" si="5">_xlfn.CONCAT(B124,C124)</f>
-        <v>35CC</v>
+        <f t="shared" si="2"/>
+        <v>35-CC</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3046,8 +3046,8 @@
         <v>192</v>
       </c>
       <c r="D125" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>35EB</v>
+        <f t="shared" si="2"/>
+        <v>35-EB</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3061,8 +3061,8 @@
         <v>192</v>
       </c>
       <c r="D126" s="3" t="str">
-        <f t="shared" ref="D126" si="6">_xlfn.CONCAT(B126,C126)</f>
-        <v>35EB</v>
+        <f t="shared" si="2"/>
+        <v>35-EB</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3076,8 +3076,8 @@
         <v>192</v>
       </c>
       <c r="D127" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>35EB</v>
+        <f t="shared" si="2"/>
+        <v>35-EB</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3091,8 +3091,8 @@
         <v>192</v>
       </c>
       <c r="D128" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>35EB</v>
+        <f t="shared" si="2"/>
+        <v>35-EB</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3106,8 +3106,8 @@
         <v>192</v>
       </c>
       <c r="D129" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>35EB</v>
+        <f t="shared" si="2"/>
+        <v>35-EB</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3121,8 +3121,8 @@
         <v>193</v>
       </c>
       <c r="D130" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>35HA</v>
+        <f t="shared" si="2"/>
+        <v>35-HA</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3136,8 +3136,8 @@
         <v>193</v>
       </c>
       <c r="D131" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>35HA</v>
+        <f t="shared" si="2"/>
+        <v>35-HA</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3151,8 +3151,8 @@
         <v>194</v>
       </c>
       <c r="D132" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>35IN</v>
+        <f t="shared" si="2"/>
+        <v>35-IN</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3166,8 +3166,8 @@
         <v>194</v>
       </c>
       <c r="D133" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>35IN</v>
+        <f t="shared" si="2"/>
+        <v>35-IN</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3181,8 +3181,8 @@
         <v>194</v>
       </c>
       <c r="D134" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>35IN</v>
+        <f t="shared" si="2"/>
+        <v>35-IN</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3196,8 +3196,8 @@
         <v>195</v>
       </c>
       <c r="D135" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>35PGW</v>
+        <f t="shared" si="2"/>
+        <v>35-PGW</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3211,8 +3211,8 @@
         <v>195</v>
       </c>
       <c r="D136" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>35PGW</v>
+        <f t="shared" si="2"/>
+        <v>35-PGW</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3226,8 +3226,8 @@
         <v>195</v>
       </c>
       <c r="D137" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>35PGW</v>
+        <f t="shared" si="2"/>
+        <v>35-PGW</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3241,8 +3241,8 @@
         <v>196</v>
       </c>
       <c r="D138" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>35R</v>
+        <f t="shared" si="2"/>
+        <v>35-R</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3256,8 +3256,8 @@
         <v>196</v>
       </c>
       <c r="D139" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>35R</v>
+        <f t="shared" si="2"/>
+        <v>35-R</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3271,8 +3271,8 @@
         <v>197</v>
       </c>
       <c r="D140" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>35R32</v>
+        <f t="shared" si="2"/>
+        <v>35-R32</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3286,8 +3286,8 @@
         <v>197</v>
       </c>
       <c r="D141" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>35R32</v>
+        <f t="shared" si="2"/>
+        <v>35-R32</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3301,8 +3301,8 @@
         <v>191</v>
       </c>
       <c r="D142" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>35SD</v>
+        <f t="shared" si="2"/>
+        <v>35-SD</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3316,8 +3316,8 @@
         <v>191</v>
       </c>
       <c r="D143" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>35SD</v>
+        <f t="shared" si="2"/>
+        <v>35-SD</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3331,8 +3331,8 @@
         <v>191</v>
       </c>
       <c r="D144" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>35SD</v>
+        <f t="shared" si="2"/>
+        <v>35-SD</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3346,8 +3346,8 @@
         <v>191</v>
       </c>
       <c r="D145" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>35SD</v>
+        <f t="shared" si="2"/>
+        <v>35-SD</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3361,8 +3361,8 @@
         <v>191</v>
       </c>
       <c r="D146" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>35SD</v>
+        <f t="shared" si="2"/>
+        <v>35-SD</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3376,8 +3376,8 @@
         <v>198</v>
       </c>
       <c r="D147" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>35WF</v>
+        <f t="shared" si="2"/>
+        <v>35-WF</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3391,8 +3391,8 @@
         <v>198</v>
       </c>
       <c r="D148" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>35WF</v>
+        <f t="shared" si="2"/>
+        <v>35-WF</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3406,8 +3406,8 @@
         <v>269</v>
       </c>
       <c r="D149" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>35BSR</v>
+        <f t="shared" si="2"/>
+        <v>35-BSR</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3421,8 +3421,8 @@
         <v>272</v>
       </c>
       <c r="D150" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>35RR</v>
+        <f t="shared" si="2"/>
+        <v>35-RR</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3436,8 +3436,8 @@
         <v>283</v>
       </c>
       <c r="D151" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>35FGR</v>
+        <f t="shared" si="2"/>
+        <v>35-FGR</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3448,7 +3448,7 @@
         <v>244</v>
       </c>
       <c r="D152" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
     </row>
@@ -3460,7 +3460,7 @@
         <v>185</v>
       </c>
       <c r="D153" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
     </row>
@@ -3472,7 +3472,7 @@
         <v>185</v>
       </c>
       <c r="D154" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
     </row>
@@ -3484,7 +3484,7 @@
         <v>185</v>
       </c>
       <c r="D155" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
     </row>
@@ -3496,7 +3496,7 @@
         <v>185</v>
       </c>
       <c r="D156" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
     </row>
@@ -3508,7 +3508,7 @@
         <v>235</v>
       </c>
       <c r="D157" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>38</v>
       </c>
     </row>
@@ -3520,7 +3520,7 @@
         <v>179</v>
       </c>
       <c r="D158" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
     </row>
@@ -3532,7 +3532,7 @@
         <v>178</v>
       </c>
       <c r="D159" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
     </row>
@@ -3544,7 +3544,7 @@
         <v>178</v>
       </c>
       <c r="D160" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
     </row>
@@ -3556,7 +3556,7 @@
         <v>178</v>
       </c>
       <c r="D161" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
     </row>
@@ -3568,7 +3568,7 @@
         <v>178</v>
       </c>
       <c r="D162" s="3" t="str">
-        <f t="shared" ref="D162" si="7">_xlfn.CONCAT(B162,C162)</f>
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
     </row>
@@ -3580,7 +3580,7 @@
         <v>181</v>
       </c>
       <c r="D163" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>42</v>
       </c>
     </row>
@@ -3595,8 +3595,8 @@
         <v>182</v>
       </c>
       <c r="D164" s="3" t="str">
-        <f t="shared" ref="D164:D202" si="8">_xlfn.CONCAT(B164,C164)</f>
-        <v>42CC</v>
+        <f t="shared" si="2"/>
+        <v>42-CC</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -3610,8 +3610,8 @@
         <v>182</v>
       </c>
       <c r="D165" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>42CC</v>
+        <f t="shared" si="2"/>
+        <v>42-CC</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -3625,8 +3625,8 @@
         <v>183</v>
       </c>
       <c r="D166" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>42ES</v>
+        <f t="shared" si="2"/>
+        <v>42-ES</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -3637,7 +3637,7 @@
         <v>264</v>
       </c>
       <c r="D167" s="3" t="str">
-        <f>_xlfn.CONCAT(B167,C167)</f>
+        <f t="shared" si="2"/>
         <v>43</v>
       </c>
     </row>
@@ -3649,7 +3649,7 @@
         <v>209</v>
       </c>
       <c r="D168" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>44</v>
       </c>
     </row>
@@ -3661,7 +3661,7 @@
         <v>172</v>
       </c>
       <c r="D169" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>45</v>
       </c>
     </row>
@@ -3673,7 +3673,7 @@
         <v>220</v>
       </c>
       <c r="D170" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>46</v>
       </c>
     </row>
@@ -3685,7 +3685,7 @@
         <v>220</v>
       </c>
       <c r="D171" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>46</v>
       </c>
     </row>
@@ -3697,7 +3697,7 @@
         <v>220</v>
       </c>
       <c r="D172" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>46</v>
       </c>
     </row>
@@ -3709,7 +3709,7 @@
         <v>220</v>
       </c>
       <c r="D173" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>46</v>
       </c>
     </row>
@@ -3721,7 +3721,7 @@
         <v>247</v>
       </c>
       <c r="D174" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>47</v>
       </c>
     </row>
@@ -3733,7 +3733,7 @@
         <v>229</v>
       </c>
       <c r="D175" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>48</v>
       </c>
     </row>
@@ -3745,7 +3745,7 @@
         <v>229</v>
       </c>
       <c r="D176" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>48</v>
       </c>
     </row>
@@ -3757,7 +3757,7 @@
         <v>229</v>
       </c>
       <c r="D177" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>48</v>
       </c>
     </row>
@@ -3769,7 +3769,7 @@
         <v>228</v>
       </c>
       <c r="D178" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>49</v>
       </c>
     </row>
@@ -3781,7 +3781,7 @@
         <v>213</v>
       </c>
       <c r="D179" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
     </row>
@@ -3793,7 +3793,7 @@
         <v>213</v>
       </c>
       <c r="D180" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="D180:D225" si="3">IF(C180 &lt;&gt; "",_xlfn.CONCAT(B180,_xlfn.CONCAT("-",C180)),B180)</f>
         <v>50</v>
       </c>
     </row>
@@ -3805,7 +3805,7 @@
         <v>213</v>
       </c>
       <c r="D181" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
     </row>
@@ -3817,7 +3817,7 @@
         <v>177</v>
       </c>
       <c r="D182" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>51</v>
       </c>
     </row>
@@ -3829,7 +3829,7 @@
         <v>177</v>
       </c>
       <c r="D183" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>51</v>
       </c>
     </row>
@@ -3841,7 +3841,7 @@
         <v>203</v>
       </c>
       <c r="D184" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>52</v>
       </c>
     </row>
@@ -3853,7 +3853,7 @@
         <v>316</v>
       </c>
       <c r="D185" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>53</v>
       </c>
     </row>
@@ -3865,7 +3865,7 @@
         <v>205</v>
       </c>
       <c r="D186" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>54</v>
       </c>
     </row>
@@ -3877,7 +3877,7 @@
         <v>205</v>
       </c>
       <c r="D187" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>54</v>
       </c>
     </row>
@@ -3889,7 +3889,7 @@
         <v>180</v>
       </c>
       <c r="D188" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>55</v>
       </c>
     </row>
@@ -3901,7 +3901,7 @@
         <v>180</v>
       </c>
       <c r="D189" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>55</v>
       </c>
     </row>
@@ -3913,7 +3913,7 @@
         <v>180</v>
       </c>
       <c r="D190" s="3" t="str">
-        <f t="shared" ref="D190" si="9">_xlfn.CONCAT(B190,C190)</f>
+        <f t="shared" si="3"/>
         <v>55</v>
       </c>
     </row>
@@ -3925,7 +3925,7 @@
         <v>225</v>
       </c>
       <c r="D191" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>56</v>
       </c>
     </row>
@@ -3937,7 +3937,7 @@
         <v>225</v>
       </c>
       <c r="D192" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>56</v>
       </c>
     </row>
@@ -3949,7 +3949,7 @@
         <v>248</v>
       </c>
       <c r="D193" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>58</v>
       </c>
     </row>
@@ -3961,7 +3961,7 @@
         <v>248</v>
       </c>
       <c r="D194" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>58</v>
       </c>
     </row>
@@ -3973,7 +3973,7 @@
         <v>248</v>
       </c>
       <c r="D195" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>58</v>
       </c>
     </row>
@@ -3985,7 +3985,7 @@
         <v>248</v>
       </c>
       <c r="D196" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>58</v>
       </c>
     </row>
@@ -3997,7 +3997,7 @@
         <v>248</v>
       </c>
       <c r="D197" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>58</v>
       </c>
     </row>
@@ -4009,7 +4009,7 @@
         <v>248</v>
       </c>
       <c r="D198" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>58</v>
       </c>
     </row>
@@ -4021,7 +4021,7 @@
         <v>248</v>
       </c>
       <c r="D199" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>58</v>
       </c>
     </row>
@@ -4033,7 +4033,7 @@
         <v>248</v>
       </c>
       <c r="D200" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>58</v>
       </c>
     </row>
@@ -4045,7 +4045,7 @@
         <v>248</v>
       </c>
       <c r="D201" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>58</v>
       </c>
     </row>
@@ -4057,7 +4057,7 @@
         <v>227</v>
       </c>
       <c r="D202" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>59</v>
       </c>
     </row>
@@ -4069,7 +4069,7 @@
         <v>170</v>
       </c>
       <c r="D203" s="3" t="str">
-        <f t="shared" ref="D203:D228" si="10">_xlfn.CONCAT(B203,C203)</f>
+        <f t="shared" si="3"/>
         <v>61</v>
       </c>
     </row>
@@ -4081,7 +4081,7 @@
         <v>170</v>
       </c>
       <c r="D204" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v>61</v>
       </c>
     </row>
@@ -4093,7 +4093,7 @@
         <v>170</v>
       </c>
       <c r="D205" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v>61</v>
       </c>
     </row>
@@ -4105,7 +4105,7 @@
         <v>216</v>
       </c>
       <c r="D206" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v>62</v>
       </c>
     </row>
@@ -4117,7 +4117,7 @@
         <v>216</v>
       </c>
       <c r="D207" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v>62</v>
       </c>
     </row>
@@ -4129,7 +4129,7 @@
         <v>174</v>
       </c>
       <c r="D208" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v>63</v>
       </c>
     </row>
@@ -4141,7 +4141,7 @@
         <v>174</v>
       </c>
       <c r="D209" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v>63</v>
       </c>
     </row>
@@ -4153,7 +4153,7 @@
         <v>174</v>
       </c>
       <c r="D210" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v>63</v>
       </c>
     </row>
@@ -4165,7 +4165,7 @@
         <v>215</v>
       </c>
       <c r="D211" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v>65</v>
       </c>
     </row>
@@ -4177,7 +4177,7 @@
         <v>215</v>
       </c>
       <c r="D212" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v>65</v>
       </c>
     </row>
@@ -4189,7 +4189,7 @@
         <v>214</v>
       </c>
       <c r="D213" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v>66</v>
       </c>
     </row>
@@ -4201,7 +4201,7 @@
         <v>214</v>
       </c>
       <c r="D214" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v>66</v>
       </c>
     </row>
@@ -4213,7 +4213,7 @@
         <v>214</v>
       </c>
       <c r="D215" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v>66</v>
       </c>
     </row>
@@ -4225,7 +4225,7 @@
         <v>214</v>
       </c>
       <c r="D216" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v>66</v>
       </c>
     </row>
@@ -4237,7 +4237,7 @@
         <v>214</v>
       </c>
       <c r="D217" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v>66</v>
       </c>
     </row>
@@ -4249,7 +4249,7 @@
         <v>291</v>
       </c>
       <c r="D218" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v>67</v>
       </c>
     </row>
@@ -4261,7 +4261,7 @@
         <v>243</v>
       </c>
       <c r="D219" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v>68</v>
       </c>
     </row>
@@ -4273,7 +4273,7 @@
         <v>187</v>
       </c>
       <c r="D220" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v>69</v>
       </c>
     </row>
@@ -4285,7 +4285,7 @@
         <v>245</v>
       </c>
       <c r="D221" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
     </row>
@@ -4297,7 +4297,7 @@
         <v>232</v>
       </c>
       <c r="D222" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v>72</v>
       </c>
     </row>
@@ -4309,7 +4309,7 @@
         <v>175</v>
       </c>
       <c r="D223" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v>73</v>
       </c>
     </row>
@@ -4321,7 +4321,7 @@
         <v>175</v>
       </c>
       <c r="D224" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v>73</v>
       </c>
     </row>
@@ -4333,7 +4333,7 @@
         <v>200</v>
       </c>
       <c r="D225" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v>84</v>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       <c r="B226"/>
       <c r="C226"/>
       <c r="D226" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="D203:D228" si="4">_xlfn.CONCAT(B226,C226)</f>
         <v/>
       </c>
     </row>
@@ -4349,7 +4349,7 @@
       <c r="B227"/>
       <c r="C227"/>
       <c r="D227" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -4357,7 +4357,7 @@
       <c r="B228"/>
       <c r="C228"/>
       <c r="D228" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>

--- a/billy_penn/data/dept_names_lookup.xlsx
+++ b/billy_penn/data/dept_names_lookup.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholashand/Software/billy-penn/billy_penn/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C09160-6D52-1F43-A2A4-478785D0A2B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F694728A-641C-4F41-B883-E1647439DF0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1429,8 +1429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D228"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A195" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D210" sqref="D210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -4150,11 +4150,11 @@
         <v>298</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>174</v>
+        <v>215</v>
       </c>
       <c r="D210" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4341,7 +4341,7 @@
       <c r="B226"/>
       <c r="C226"/>
       <c r="D226" s="3" t="str">
-        <f t="shared" ref="D203:D228" si="4">_xlfn.CONCAT(B226,C226)</f>
+        <f t="shared" ref="D226:D228" si="4">_xlfn.CONCAT(B226,C226)</f>
         <v/>
       </c>
     </row>
